--- a/worklog.xlsx
+++ b/worklog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1D6921-61C1-4EFF-A375-3353CECB8B5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53173504-0392-4184-89C1-D42869C16B7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Day</t>
   </si>
@@ -29,19 +29,46 @@
   </si>
   <si>
     <t>Work Done</t>
+  </si>
+  <si>
+    <t>Basic spider built that crawls https://economictimes.indiatimes.com . It looks for news title, url, time/date and article in the company specific section of the website. It then saves this datato a csv file after cleaning the string a little bit.</t>
+  </si>
+  <si>
+    <t>Goal for tomorrow</t>
+  </si>
+  <si>
+    <t>Lines of Code</t>
+  </si>
+  <si>
+    <t>Studied the process of crawling data from any webpage, watched python tutorials, built a basic web-scraper by following a youtube tutorial.</t>
+  </si>
+  <si>
+    <t>To Build a basic web scraper that scrapes data of one company from one website and start working from there.</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF586069"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,9 +91,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,38 +391,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="22.42578125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="3">
+        <v>43635</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
         <v>43636</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/worklog.xlsx
+++ b/worklog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53173504-0392-4184-89C1-D42869C16B7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6251F-764F-42E6-8B12-40EDF9EF2799}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Day</t>
   </si>
@@ -34,15 +34,9 @@
     <t>Basic spider built that crawls https://economictimes.indiatimes.com . It looks for news title, url, time/date and article in the company specific section of the website. It then saves this datato a csv file after cleaning the string a little bit.</t>
   </si>
   <si>
-    <t>Goal for tomorrow</t>
-  </si>
-  <si>
     <t>Lines of Code</t>
   </si>
   <si>
-    <t>Studied the process of crawling data from any webpage, watched python tutorials, built a basic web-scraper by following a youtube tutorial.</t>
-  </si>
-  <si>
     <t>To Build a basic web scraper that scrapes data of one company from one website and start working from there.</t>
   </si>
   <si>
@@ -50,13 +44,31 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Clean article data in csv file. Include more companies and a new website.</t>
+  </si>
+  <si>
+    <t>Studied the process of crawling data from any webpage, watched python tutorials, built a basic web-scraper by following a youtube tutorial. Reviewed Early Warning Systems (EWS) and understood the flow of the model.</t>
+  </si>
+  <si>
+    <t>Secondary Goals</t>
+  </si>
+  <si>
+    <t>Tomorrow</t>
+  </si>
+  <si>
+    <t>Primary Goals</t>
+  </si>
+  <si>
+    <t>Build keywords dictionary for good and bad metrics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,13 +82,27 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,25 +117,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,88 +432,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="22.42578125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43635</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>210</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43636</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>885</v>
+      </c>
+      <c r="E5" s="4">
+        <v>170</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1"/>
+      <c r="G5" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>43635</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>43636</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="6"/>
+      <c r="B6" s="5">
+        <v>43637</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/worklog.xlsx
+++ b/worklog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6251F-764F-42E6-8B12-40EDF9EF2799}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02128A51-F424-4BD1-B943-BACD10B9DCE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Day</t>
   </si>
@@ -31,56 +31,41 @@
     <t>Work Done</t>
   </si>
   <si>
-    <t>Basic spider built that crawls https://economictimes.indiatimes.com . It looks for news title, url, time/date and article in the company specific section of the website. It then saves this datato a csv file after cleaning the string a little bit.</t>
-  </si>
-  <si>
-    <t>Lines of Code</t>
-  </si>
-  <si>
-    <t>To Build a basic web scraper that scrapes data of one company from one website and start working from there.</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Clean article data in csv file. Include more companies and a new website.</t>
-  </si>
-  <si>
     <t>Studied the process of crawling data from any webpage, watched python tutorials, built a basic web-scraper by following a youtube tutorial. Reviewed Early Warning Systems (EWS) and understood the flow of the model.</t>
   </si>
   <si>
-    <t>Secondary Goals</t>
-  </si>
-  <si>
-    <t>Tomorrow</t>
-  </si>
-  <si>
-    <t>Primary Goals</t>
-  </si>
-  <si>
-    <t>Build keywords dictionary for good and bad metrics</t>
+    <t>Basic spider built that crawls https://economictimes.indiatimes.com . It looks for news title, url, time/date and article in the company specific section of the website. It then saves this data to a csv file after cleaning the string a little bit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Built a genralised spider for economictimes that fetches a list of companies by the first alphabet. The user then selects which company they want to crawl. </t>
+  </si>
+  <si>
+    <t>Bugs / Limitations</t>
+  </si>
+  <si>
+    <t>Deep crawling not done. Poorly written main (Spider called by commandline not script)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some companies are not scraped as their page sources for news do not load </t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Project Tracking - Bulk News Crawling and Analysis for EWS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF586069"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -91,18 +76,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,40 +96,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,119 +399,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>43635</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7">
+        <v>43636</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7">
+        <v>43637</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>43638</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43639</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>43635</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>210</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>43636</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>885</v>
-      </c>
-      <c r="E5" s="4">
-        <v>170</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>43637</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="11"/>
+      <c r="B11" s="7">
+        <v>43640</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/worklog.xlsx
+++ b/worklog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02128A51-F424-4BD1-B943-BACD10B9DCE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32F887E-F7A3-49B4-A538-F52AB2D3DB5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Day</t>
   </si>
@@ -53,6 +53,13 @@
   </si>
   <si>
     <t>Project Tracking - Bulk News Crawling and Analysis for EWS</t>
+  </si>
+  <si>
+    <t>Fixed buggy scraping of pages where source code of the site does not load. Cleaned scraped text data (date,time and article). document and add comments to the code.
+keep code in PEP-8 format.</t>
+  </si>
+  <si>
+    <t>Code works for only one company at a time</t>
   </si>
 </sst>
 </file>
@@ -96,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -118,6 +125,9 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,7 +412,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,77 +449,91 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>43635</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>43635</v>
+        <v>43636</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
       <c r="B7" s="7">
-        <v>43636</v>
+        <v>43637</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
       <c r="B8" s="7">
-        <v>43637</v>
+        <v>43638</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="7">
-        <v>43638</v>
+        <v>43639</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="7">
-        <v>43639</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>43640</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="7">
-        <v>43640</v>
+        <v>43641</v>
       </c>
     </row>
   </sheetData>

--- a/worklog.xlsx
+++ b/worklog.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32F887E-F7A3-49B4-A538-F52AB2D3DB5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB94FCB3-47AF-4CF5-BCA5-7AD3CF67F92B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Day</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Code works for only one company at a time</t>
+  </si>
+  <si>
+    <t>Spider now accepts input from a csv file that contains a list of companies to be crawled. Modified spider to get stockname from title of company page. Then used nsepy library to get stock info.</t>
+  </si>
+  <si>
+    <t>Company names need to be a perfect match. Improper company names will be skipped.</t>
+  </si>
+  <si>
+    <t>built input.csv file to take in company name and keywords as input and store the output of keyword count in front of company name</t>
+  </si>
+  <si>
+    <t>company names and keywords both need to be a perfect match. Improper company names will be skipped and mismatch keywords wont be counted</t>
   </si>
 </sst>
 </file>
@@ -409,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,12 +540,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
       <c r="B11" s="7">
         <v>43641</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7">
+        <v>43642</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/worklog.xlsx
+++ b/worklog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB94FCB3-47AF-4CF5-BCA5-7AD3CF67F92B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748E6B24-9316-4B86-A12F-F56F0B8C38FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,6 +568,71 @@
         <v>16</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7">
+        <v>43643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7">
+        <v>43644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7">
+        <v>43645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/worklog.xlsx
+++ b/worklog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748E6B24-9316-4B86-A12F-F56F0B8C38FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534F3D63-31D4-4A46-9F18-EF380279BC0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Day</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>company names and keywords both need to be a perfect match. Improper company names will be skipped and mismatch keywords wont be counted</t>
+  </si>
+  <si>
+    <t>Fixed company match case. From and to date article filter. Threshold value for matchcase. Company not found update.</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,35 +603,38 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>13</v>
       </c>
       <c r="B17" s="7">
         <v>43647</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>18</v>
       </c>

--- a/worklog.xlsx
+++ b/worklog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534F3D63-31D4-4A46-9F18-EF380279BC0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D39566-DC17-4C08-B96B-7D7B58ADF623}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +603,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -617,6 +617,9 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>14</v>
+      </c>
+      <c r="B18" s="7">
+        <v>43648</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/worklog.xlsx
+++ b/worklog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D39566-DC17-4C08-B96B-7D7B58ADF623}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FD3565-E023-4722-B6EF-3B7B17D7C738}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Day</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Fixed company match case. From and to date article filter. Threshold value for matchcase. Company not found update.</t>
+  </si>
+  <si>
+    <t>keyword matching using nltk. created a log for keywords found with article link and company name. pip freeze clean requirements.txt file.</t>
+  </si>
+  <si>
+    <t>Try converting .py to .exe</t>
   </si>
 </sst>
 </file>
@@ -426,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +609,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -614,30 +620,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>14</v>
       </c>
       <c r="B18" s="7">
         <v>43648</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>43649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>18</v>
       </c>
